--- a/Team_DDGK_Report.xlsx
+++ b/Team_DDGK_Report.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhaval\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E56AB0-8199-C94B-9B94-FAEA922E2914}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBEE468-929B-4A8C-A405-5FB63ADB8677}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
-    <sheet name="Burndown" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="13" r:id="rId4"/>
     <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
-    <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
+    <sheet name="Burndown" sheetId="7" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
+    <sheet name="Sprint4" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -777,9 +779,6 @@
     <t>ddongre@stevens.edu</t>
   </si>
   <si>
-    <t>*****</t>
-  </si>
-  <si>
     <t>Gopi</t>
   </si>
   <si>
@@ -790,6 +789,9 @@
   </si>
   <si>
     <t>Trivedi</t>
+  </si>
+  <si>
+    <t>dhaval-dongre</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1066,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1075,8 +1077,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1251,7 +1251,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1322,7 +1322,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2300,19 +2300,19 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -2339,14 +2339,14 @@
       <c r="C3" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>227</v>
       </c>
       <c r="E3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -2356,48 +2356,48 @@
       <c r="C4" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>221</v>
       </c>
       <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
         <v>231</v>
       </c>
-      <c r="C5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>218</v>
       </c>
       <c r="E5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
       <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
         <v>233</v>
       </c>
-      <c r="C6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>219</v>
       </c>
       <c r="E6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
@@ -2406,7 +2406,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2421,24 +2421,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.53515625" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="19.4609375" customWidth="1"/>
+    <col min="4" max="4" width="6.69140625" customWidth="1"/>
+    <col min="5" max="5" width="7.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2472,7 +2517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2489,7 +2534,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2501,6 +2546,11 @@
       </c>
       <c r="D4" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2511,272 +2561,205 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9434955-60F1-47BC-918E-CA489C85C7AF}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="13">
-        <v>41065</v>
-      </c>
-      <c r="C15" s="14">
-        <v>24</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="13">
-        <v>41078</v>
-      </c>
-      <c r="C16" s="14">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <f>C15-C16</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="14">
-        <v>250</v>
-      </c>
-      <c r="F16" s="14">
-        <v>120</v>
-      </c>
-      <c r="G16" s="9">
-        <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="13">
-        <v>41092</v>
-      </c>
-      <c r="C17" s="14">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <f>C16-C17</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="14">
-        <v>480</v>
-      </c>
-      <c r="F17" s="15">
-        <v>135</v>
-      </c>
-      <c r="G17" s="9">
-        <f>(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="13">
-        <v>41106</v>
-      </c>
-      <c r="C18" s="14">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <f>C17-C18</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="14">
-        <v>740</v>
-      </c>
-      <c r="F18" s="15">
-        <v>160</v>
-      </c>
-      <c r="G18" s="9">
-        <f>(E18-E17)/F18*60</f>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="13">
-        <v>41120</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f>C18-C19</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1100</v>
-      </c>
-      <c r="F19" s="15">
-        <v>145</v>
-      </c>
-      <c r="G19" s="9">
-        <f>(E19-E18)/F19*60</f>
-        <v>148.9655172413793</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>40442</v>
-      </c>
-      <c r="B2">
-        <v>36</v>
-      </c>
-      <c r="D2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="11">
+        <v>41065</v>
+      </c>
+      <c r="C15" s="12">
+        <v>24</v>
+      </c>
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>40455</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <f>B2-B3</f>
+      <c r="F15" s="12"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="11">
+        <v>41078</v>
+      </c>
+      <c r="C16" s="12">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="E16" s="12">
         <v>250</v>
       </c>
-      <c r="E3">
+      <c r="F16" s="12">
         <v>120</v>
       </c>
-      <c r="F3" s="9">
-        <f>(D3-D2)/E3*60</f>
+      <c r="G16" s="7">
+        <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="11">
+        <v>41092</v>
+      </c>
+      <c r="C17" s="12">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <f>C16-C17</f>
+        <v>6</v>
+      </c>
+      <c r="E17" s="12">
+        <v>480</v>
+      </c>
+      <c r="F17" s="13">
+        <v>135</v>
+      </c>
+      <c r="G17" s="7">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="11">
+        <v>41106</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f>C17-C18</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="12">
+        <v>740</v>
+      </c>
+      <c r="F18" s="13">
+        <v>160</v>
+      </c>
+      <c r="G18" s="7">
+        <f>(E18-E17)/F18*60</f>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="11">
+        <v>41120</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>C18-C19</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="13">
+        <v>145</v>
+      </c>
+      <c r="G19" s="7">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -2791,27 +2774,27 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" customWidth="1"/>
+    <col min="2" max="2" width="24.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.4609375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.84375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.4609375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2824,41 +2807,41 @@
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -2883,29 +2866,29 @@
       <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="2">
         <v>40444</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -2916,7 +2899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -2927,7 +2910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -2938,7 +2921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -2957,26 +2940,26 @@
       <c r="F8">
         <v>120</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -2990,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -3001,7 +2984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -3012,36 +2995,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -3054,6 +3036,85 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>40442</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>40455</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f>B2-B3</f>
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3" s="7">
+        <f>(D3-D2)/E3*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3061,9 +3122,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -3076,19 +3137,19 @@
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3099,7 +3160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3107,9 +3168,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -3122,64 +3183,19 @@
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3193,17 +3209,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>128</v>
       </c>
@@ -3214,481 +3230,481 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="32" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.15">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.15">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.15">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
+    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>161</v>
       </c>
       <c r="B34" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>162</v>
       </c>
       <c r="B35" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>163</v>
       </c>
       <c r="B36" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>164</v>
       </c>
       <c r="B37" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>165</v>
       </c>
       <c r="B38" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>166</v>
       </c>
       <c r="B39" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>167</v>
       </c>
       <c r="B40" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>168</v>
       </c>
       <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>169</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>170</v>
       </c>
       <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Team_DDGK_Report.xlsx
+++ b/Team_DDGK_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhaval\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBEE468-929B-4A8C-A405-5FB63ADB8677}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7A9BB-C097-FF47-93E8-9CE973B83BD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -43,19 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="235">
-  <si>
-    <t>Find marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="214">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,26 +148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gh(at)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh(hm)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Story ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,34 +160,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -602,27 +545,6 @@
     <t>US42</t>
   </si>
   <si>
-    <t>T03.01</t>
-  </si>
-  <si>
-    <t>T03.02</t>
-  </si>
-  <si>
-    <t>T03.03</t>
-  </si>
-  <si>
-    <t>T05.01</t>
-  </si>
-  <si>
-    <t>T05.02</t>
-  </si>
-  <si>
-    <t>T05.03</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -692,15 +614,9 @@
     <t>Source File</t>
   </si>
   <si>
-    <t>gedcom.py</t>
-  </si>
-  <si>
     <t>us03_birth_b4_death</t>
   </si>
   <si>
-    <t>33-36</t>
-  </si>
-  <si>
     <t>Test File</t>
   </si>
   <si>
@@ -716,30 +632,6 @@
     <t>Test lines</t>
   </si>
   <si>
-    <t>test_us03</t>
-  </si>
-  <si>
-    <t>15-23</t>
-  </si>
-  <si>
-    <t>us05_marr_b4_death</t>
-  </si>
-  <si>
-    <t>test_us05</t>
-  </si>
-  <si>
-    <t>29-34</t>
-  </si>
-  <si>
-    <t>test03.py</t>
-  </si>
-  <si>
-    <t>test05.py</t>
-  </si>
-  <si>
-    <t>https://github.com/gopimiyani/SSW-555-Agile_Project</t>
-  </si>
-  <si>
     <t>gopimiyani</t>
   </si>
   <si>
@@ -792,6 +684,36 @@
   </si>
   <si>
     <t>dhaval-dongre</t>
+  </si>
+  <si>
+    <t>https://github.com/gopimiyani/SSW-555-DDGK</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>SSW-555_DDGK_Project3_Output</t>
+  </si>
+  <si>
+    <t>us07_birth_b4_death</t>
+  </si>
+  <si>
+    <t>us08_birth_b4_death</t>
+  </si>
+  <si>
+    <t>us04_Marriage_b4_divorce</t>
+  </si>
+  <si>
+    <t>us05_Marriage_b4_death</t>
+  </si>
+  <si>
+    <t>us06_Divorce_b4_death</t>
+  </si>
+  <si>
+    <t>us02_birth_b4_Marriage</t>
+  </si>
+  <si>
+    <t>us01_dates_b4_currentdate</t>
   </si>
 </sst>
 </file>
@@ -802,7 +724,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -944,6 +866,12 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1066,7 +994,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1142,6 +1070,7 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1251,7 +1180,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1322,7 +1251,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2300,113 +2229,113 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>216</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2415,6 +2344,7 @@
     <hyperlink ref="D6" r:id="rId2" xr:uid="{CD2AAC62-F576-7B44-8F9A-2F0CC179C876}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{F3AA9DFE-3181-3349-8949-C6A2F8E293FA}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{2574E9EF-8FF5-C847-BA76-A4123CFE12BF}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{FFB78D38-BAC7-6744-AC41-0E61E5D171A0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2426,38 +2356,38 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2468,90 +2398,583 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.53515625" customWidth="1"/>
-    <col min="2" max="2" width="7.69140625" customWidth="1"/>
-    <col min="3" max="3" width="19.4609375" customWidth="1"/>
-    <col min="4" max="4" width="6.69140625" customWidth="1"/>
-    <col min="5" max="5" width="7.69140625" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2566,7 +2989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2576,76 +2999,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B15" s="11">
         <v>41065</v>
@@ -2659,9 +3082,9 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B16" s="11">
         <v>41078</v>
@@ -2684,9 +3107,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B17" s="11">
         <v>41092</v>
@@ -2709,9 +3132,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B18" s="11">
         <v>41106</v>
@@ -2734,9 +3157,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B19" s="11">
         <v>41120</v>
@@ -2771,261 +3194,323 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" customWidth="1"/>
-    <col min="2" max="2" width="24.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.4609375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
+    <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.84375" style="15" customWidth="1"/>
-    <col min="15" max="15" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.4609375" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="15"/>
+    <col min="15" max="15" width="9.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="F3">
+        <v>45</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="P1" s="14" t="s">
+      <c r="L4" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="M8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>120</v>
-      </c>
-      <c r="H2">
-        <v>90</v>
-      </c>
-      <c r="I2" s="2">
-        <v>40444</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>120</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3039,41 +3524,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -3084,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -3122,35 +3607,35 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3168,35 +3653,35 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3210,502 +3695,502 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="30" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+      <c r="A11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+      <c r="A12" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+      <c r="A13" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.15">
+      <c r="A14" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+      <c r="A16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A20" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B20" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C20" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A21" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A22" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+      <c r="A27" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A28" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A29" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A30" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+      <c r="A31" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="25" t="s">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A32" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="33" t="s">
+    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="25" t="s">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="25" t="s">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="25" t="s">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="36" t="s">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="38" t="s">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="38" t="s">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="19" t="s">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="19" t="s">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="38" t="s">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Team_DDGK_Report.xlsx
+++ b/Team_DDGK_Report.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krutarth\Desktop\cs555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7A9BB-C097-FF47-93E8-9CE973B83BD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D893B2-B3BB-43D4-A169-C8CE882D742E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
     <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="13" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="3" r:id="rId5"/>
-    <sheet name="Burndown" sheetId="7" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="4" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="5" r:id="rId8"/>
-    <sheet name="Stories" sheetId="11" r:id="rId9"/>
-    <sheet name="Sprint4" sheetId="6" r:id="rId10"/>
+    <sheet name="Burndown README" sheetId="13" r:id="rId3"/>
+    <sheet name="Sprint1" sheetId="3" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="4" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId7"/>
+    <sheet name="Stories" sheetId="11" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="216">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -641,9 +641,6 @@
     <t>ktrived5@stevens.edu</t>
   </si>
   <si>
-    <t>krutarh29</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -714,6 +711,15 @@
   </si>
   <si>
     <t>us01_dates_b4_currentdate</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>krutarth29</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1180,22 +1186,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078</c:v>
+                  <c:v>42059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092</c:v>
+                  <c:v>42071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106</c:v>
+                  <c:v>42091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120</c:v>
+                  <c:v>42108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,16 +1213,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1251,7 +1257,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1320,10 +1326,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455</c:v>
+                  <c:v>42058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,10 +1341,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,15 +1458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>469053</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:colOff>441839</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>948266</xdr:colOff>
+      <xdr:colOff>921052</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:rowOff>15724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1475,8 +1481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1425786" y="533401"/>
-          <a:ext cx="1317413" cy="643466"/>
+          <a:off x="1339910" y="1431472"/>
+          <a:ext cx="1259356" cy="652538"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1592,15 +1598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1239520</xdr:colOff>
+      <xdr:colOff>1130663</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160868</xdr:rowOff>
+      <xdr:rowOff>124582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1058333</xdr:colOff>
+      <xdr:colOff>905026</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:rowOff>99181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1615,8 +1621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3034453" y="1346201"/>
-          <a:ext cx="1232747" cy="821266"/>
+          <a:off x="2808877" y="1331082"/>
+          <a:ext cx="1080649" cy="836385"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2228,20 +2234,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2258,49 +2264,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>192</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="E4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>199</v>
-      </c>
-      <c r="C5" t="s">
-        <v>200</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>187</v>
@@ -2309,33 +2315,33 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
         <v>201</v>
-      </c>
-      <c r="C6" t="s">
-        <v>202</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2351,65 +2357,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G7:G9"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.3046875" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2426,7 +2387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2437,13 +2398,13 @@
         <v>157</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2454,13 +2415,13 @@
         <v>71</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2471,13 +2432,13 @@
         <v>70</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2488,13 +2449,13 @@
         <v>72</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2505,13 +2466,13 @@
         <v>73</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2522,13 +2483,13 @@
         <v>74</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2539,13 +2500,13 @@
         <v>75</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2556,13 +2517,13 @@
         <v>158</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2573,13 +2534,13 @@
         <v>77</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2590,13 +2551,13 @@
         <v>79</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2607,13 +2568,13 @@
         <v>80</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2624,13 +2585,13 @@
         <v>81</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2641,13 +2602,13 @@
         <v>83</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2658,13 +2619,13 @@
         <v>171</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2675,13 +2636,13 @@
         <v>84</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2692,13 +2653,13 @@
         <v>85</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2709,13 +2670,13 @@
         <v>178</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2726,13 +2687,13 @@
         <v>86</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2743,13 +2704,13 @@
         <v>87</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2760,13 +2721,13 @@
         <v>88</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2777,13 +2738,13 @@
         <v>89</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2794,13 +2755,13 @@
         <v>92</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2811,13 +2772,13 @@
         <v>93</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2828,13 +2789,13 @@
         <v>94</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2845,13 +2806,13 @@
         <v>95</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2862,13 +2823,13 @@
         <v>96</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2879,13 +2840,13 @@
         <v>97</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2896,13 +2857,13 @@
         <v>98</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2913,13 +2874,13 @@
         <v>99</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2930,13 +2891,13 @@
         <v>100</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2947,13 +2908,13 @@
         <v>101</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2964,16 +2925,16 @@
         <v>102</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="30"/>
     </row>
   </sheetData>
@@ -2984,66 +2945,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9434955-60F1-47BC-918E-CA489C85C7AF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -3066,15 +3015,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>163</v>
       </c>
       <c r="B15" s="11">
-        <v>41065</v>
+        <v>42046</v>
       </c>
       <c r="C15" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -3082,104 +3031,105 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>164</v>
       </c>
       <c r="B16" s="11">
-        <v>41078</v>
+        <v>42059</v>
       </c>
       <c r="C16" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="12">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F16" s="12">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7">
         <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B17" s="11">
-        <v>41092</v>
+        <v>42071</v>
       </c>
       <c r="C17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="12">
-        <v>480</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="F17" s="13">
-        <v>135</v>
-      </c>
-      <c r="G17" s="7">
+        <f>-H20</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="e">
         <f>(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B18" s="11">
-        <v>41106</v>
+        <v>42091</v>
       </c>
       <c r="C18" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
-        <v>6</v>
-      </c>
-      <c r="E18" s="12">
-        <v>740</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="F18" s="13">
-        <v>160</v>
-      </c>
-      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="e">
         <f>(E18-E17)/F18*60</f>
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B19" s="11">
-        <v>41120</v>
+        <v>42108</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1100</v>
+        <v>8</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="F19" s="13">
-        <v>145</v>
-      </c>
-      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="e">
         <f>(E19-E18)/F19*60</f>
-        <v>148.9655172413793</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -3189,35 +3139,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.4609375" style="15" customWidth="1"/>
     <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="15"/>
-    <col min="15" max="15" width="9.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.69140625" style="15"/>
+    <col min="15" max="15" width="9.15234375" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3193,7 @@
         <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>179</v>
@@ -3264,7 +3214,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>115</v>
       </c>
@@ -3272,10 +3222,10 @@
         <v>157</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3283,18 +3233,24 @@
       <c r="F2">
         <v>30</v>
       </c>
+      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>116</v>
       </c>
@@ -3302,10 +3258,10 @@
         <v>71</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -3313,14 +3269,20 @@
       <c r="F3">
         <v>45</v>
       </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>117</v>
       </c>
@@ -3328,10 +3290,10 @@
         <v>70</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3339,14 +3301,20 @@
       <c r="F4">
         <v>30</v>
       </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>118</v>
       </c>
@@ -3354,10 +3322,10 @@
         <v>72</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -3365,14 +3333,20 @@
       <c r="F5">
         <v>45</v>
       </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>119</v>
       </c>
@@ -3380,10 +3354,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -3391,14 +3365,20 @@
       <c r="F6">
         <v>30</v>
       </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>120</v>
       </c>
@@ -3406,10 +3386,10 @@
         <v>74</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -3417,14 +3397,20 @@
       <c r="F7">
         <v>25</v>
       </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>121</v>
       </c>
@@ -3432,10 +3418,10 @@
         <v>75</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -3443,18 +3429,24 @@
       <c r="F8">
         <v>20</v>
       </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>207</v>
       </c>
       <c r="M8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>122</v>
       </c>
@@ -3462,10 +3454,10 @@
         <v>158</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -3473,42 +3465,51 @@
       <c r="F9">
         <v>60</v>
       </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
@@ -3520,25 +3521,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A29" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3558,37 +3559,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>40442</v>
+        <v>42046</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>40455</v>
+        <v>42058</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="F3" s="7">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>95.454545454545453</v>
       </c>
     </row>
   </sheetData>
@@ -3599,17 +3600,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3636,6 +3640,166 @@
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3645,17 +3809,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="66" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3690,21 +3854,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="67" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3715,7 +3879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>115</v>
       </c>
@@ -3727,10 +3891,10 @@
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>116</v>
       </c>
@@ -3742,10 +3906,10 @@
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>117</v>
       </c>
@@ -3757,10 +3921,10 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>118</v>
       </c>
@@ -3772,10 +3936,10 @@
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>119</v>
       </c>
@@ -3786,7 +3950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>120</v>
       </c>
@@ -3797,7 +3961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>121</v>
       </c>
@@ -3808,7 +3972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>122</v>
       </c>
@@ -3819,7 +3983,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>123</v>
       </c>
@@ -3830,7 +3994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>124</v>
       </c>
@@ -3841,7 +4005,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>125</v>
       </c>
@@ -3852,7 +4016,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>126</v>
       </c>
@@ -3863,7 +4027,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>127</v>
       </c>
@@ -3874,7 +4038,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>128</v>
       </c>
@@ -3885,7 +4049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>129</v>
       </c>
@@ -3896,7 +4060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>130</v>
       </c>
@@ -3907,7 +4071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>131</v>
       </c>
@@ -3918,7 +4082,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>132</v>
       </c>
@@ -3929,7 +4093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>133</v>
       </c>
@@ -3940,7 +4104,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>134</v>
       </c>
@@ -3951,7 +4115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>135</v>
       </c>
@@ -3962,7 +4126,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>136</v>
       </c>
@@ -3973,7 +4137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>137</v>
       </c>
@@ -3984,7 +4148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>138</v>
       </c>
@@ -3995,7 +4159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>139</v>
       </c>
@@ -4006,7 +4170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>140</v>
       </c>
@@ -4017,7 +4181,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>141</v>
       </c>
@@ -4028,7 +4192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>142</v>
       </c>
@@ -4039,7 +4203,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>143</v>
       </c>
@@ -4050,7 +4214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>144</v>
       </c>
@@ -4061,7 +4225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
@@ -4072,7 +4236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
@@ -4083,7 +4247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4094,7 +4258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4105,7 +4269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4116,7 +4280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4127,7 +4291,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4138,7 +4302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4149,7 +4313,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4160,7 +4324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4171,7 +4335,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4182,7 +4346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4197,4 +4361,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Team_DDGK_Report.xlsx
+++ b/Team_DDGK_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krutarth\Desktop\cs555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stevens\CS 555\SSW-555-DDGK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D893B2-B3BB-43D4-A169-C8CE882D742E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2915F1A7-6294-4326-B83E-89BEEFD1ED1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="219">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,15 +179,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
   </si>
   <si>
@@ -720,6 +711,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>coming late for team meeting</t>
+  </si>
+  <si>
+    <t>missing deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collborating with team </t>
+  </si>
+  <si>
+    <t>communication by slack</t>
+  </si>
+  <si>
+    <t>halping group members</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1009,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1077,6 +1086,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1329,7 +1342,7 @@
                   <c:v>42046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42058</c:v>
+                  <c:v>42061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,20 +2247,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="120" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2264,80 +2277,80 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
         <v>195</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="D5" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
         <v>197</v>
       </c>
-      <c r="E4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>198</v>
       </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
       <c r="D6" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2362,15 +2375,15 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3046875" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2387,554 +2400,554 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="30"/>
     </row>
   </sheetData>
@@ -2948,53 +2961,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -3015,9 +3028,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B15" s="11">
         <v>42046</v>
@@ -3031,9 +3044,9 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B16" s="11">
         <v>42059</v>
@@ -3056,9 +3069,9 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B17" s="11">
         <v>42071</v>
@@ -3071,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F17" s="13">
         <f>-H20</f>
@@ -3082,9 +3095,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B18" s="11">
         <v>42091</v>
@@ -3097,7 +3110,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F18" s="13">
         <v>0</v>
@@ -3107,9 +3120,9 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B19" s="11">
         <v>42108</v>
@@ -3122,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F19" s="13">
         <v>0</v>
@@ -3141,33 +3154,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.4609375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
     <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.69140625" style="15"/>
-    <col min="15" max="15" width="9.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="15"/>
+    <col min="15" max="15" width="9.125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3193,39 +3206,39 @@
         <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3233,35 +3246,38 @@
       <c r="F2">
         <v>30</v>
       </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
       <c r="H2">
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -3269,31 +3285,34 @@
       <c r="F3">
         <v>45</v>
       </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
       <c r="H3">
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3301,31 +3320,34 @@
       <c r="F4">
         <v>30</v>
       </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
       <c r="H4">
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -3333,31 +3355,34 @@
       <c r="F5">
         <v>45</v>
       </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
       <c r="H5">
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -3365,31 +3390,34 @@
       <c r="F6">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
       <c r="H6">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -3397,31 +3425,34 @@
       <c r="F7">
         <v>25</v>
       </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -3429,35 +3460,38 @@
       <c r="F8">
         <v>20</v>
       </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -3465,53 +3499,70 @@
       <c r="F9">
         <v>60</v>
       </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
       <c r="H9">
         <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="30"/>
-    </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>SUM(G2:G9)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>36</v>
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="42" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3525,21 +3576,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3559,20 +3610,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42046</v>
       </c>
       <c r="B2">
         <v>32</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>42058</v>
+        <v>42061</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -3582,14 +3642,14 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="E3">
         <v>220</v>
       </c>
       <c r="F3" s="7">
         <f>(D3-D2)/E3*60</f>
-        <v>95.454545454545453</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3604,16 +3664,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3642,18 +3702,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>200</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3662,18 +3722,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>193</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -3682,18 +3742,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>193</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3702,18 +3762,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>198</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -3722,18 +3782,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>198</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -3742,18 +3802,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>191</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -3762,18 +3822,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>191</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>188</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -3782,18 +3842,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>200</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>197</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -3817,9 +3877,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3858,503 +3918,503 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="67" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B33"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B9" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="25" t="s">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="33" t="s">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="19" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="38" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="19" t="s">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="33" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B33" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C33" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C34" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="C36" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C37" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>149</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>150</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>151</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C41" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="10" t="s">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4371,9 +4431,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team_DDGK_Report.xlsx
+++ b/Team_DDGK_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stevens\CS 555\SSW-555-DDGK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krutarth\Desktop\New folder\SSW-555-DDGK__Sprint2 (1)\SSW-555-DDGK\SSW-555--Project 04-Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2915F1A7-6294-4326-B83E-89BEEFD1ED1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB3A36-7401-4822-8B31-43428662794F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="226">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -729,6 +729,27 @@
   </si>
   <si>
     <t>halping group members</t>
+  </si>
+  <si>
+    <t>Refactoring the code by removing bed smells</t>
+  </si>
+  <si>
+    <t>Arranging meetings for Sprint design and review</t>
+  </si>
+  <si>
+    <t>Absense in meeting</t>
+  </si>
+  <si>
+    <t>Bad smells in code</t>
+  </si>
+  <si>
+    <t>Collborating code in Git</t>
+  </si>
+  <si>
+    <t>Test the code after integration only</t>
+  </si>
+  <si>
+    <t>Unit testing and frequent Integration testing</t>
   </si>
 </sst>
 </file>
@@ -1344,6 +1365,9 @@
                 <c:pt idx="1">
                   <c:v>42061</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42087</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1358,6 +1382,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,20 +2274,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2277,7 +2304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -2294,7 +2321,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -2311,7 +2338,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2328,7 +2355,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -2345,7 +2372,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2374,16 +2401,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A6" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2400,7 +2427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2417,7 +2444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2434,7 +2461,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2451,7 +2478,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2468,7 +2495,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2485,7 +2512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2502,7 +2529,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2519,7 +2546,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2536,7 +2563,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2553,7 +2580,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2570,7 +2597,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2587,7 +2614,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2604,7 +2631,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2621,7 +2648,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2638,7 +2665,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2655,7 +2682,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2672,7 +2699,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2689,7 +2716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2706,7 +2733,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2723,7 +2750,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2740,7 +2767,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2757,7 +2784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2774,7 +2801,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2791,7 +2818,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2808,7 +2835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2825,7 +2852,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2842,7 +2869,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2859,7 +2886,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2876,7 +2903,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2893,7 +2920,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2910,7 +2937,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2927,7 +2954,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2944,10 +2971,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="30"/>
     </row>
   </sheetData>
@@ -2961,51 +2988,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3028,7 +3055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3044,7 +3071,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3069,7 +3096,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -3095,7 +3122,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -3120,7 +3147,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -3156,31 +3183,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.4609375" style="15" customWidth="1"/>
     <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="15"/>
-    <col min="15" max="15" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.69140625" style="15"/>
+    <col min="15" max="15" width="9.15234375" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3227,7 +3254,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>112</v>
       </c>
@@ -3266,7 +3293,7 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>113</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>114</v>
       </c>
@@ -3336,7 +3363,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>115</v>
       </c>
@@ -3371,7 +3398,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>116</v>
       </c>
@@ -3406,7 +3433,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>117</v>
       </c>
@@ -3441,7 +3468,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>118</v>
       </c>
@@ -3480,7 +3507,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>119</v>
       </c>
@@ -3515,52 +3542,52 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="30"/>
       <c r="G10">
         <f>SUM(G2:G9)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42" t="s">
         <v>215</v>
       </c>
@@ -3574,23 +3601,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="21.69140625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3610,7 +3637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42046</v>
       </c>
@@ -3630,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42061</v>
       </c>
@@ -3650,6 +3677,27 @@
       <c r="F3" s="7">
         <f>(D3-D2)/E3*60</f>
         <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>42087</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>475</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4" s="7">
+        <f>(D4-D3)/E4*60</f>
+        <v>53.142857142857139</v>
       </c>
     </row>
   </sheetData>
@@ -3662,18 +3710,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="25.69140625" customWidth="1"/>
+    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>120</v>
       </c>
@@ -3712,8 +3761,8 @@
       <c r="C2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>213</v>
+      <c r="D2" t="s">
+        <v>210</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3721,8 +3770,17 @@
       <c r="F2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>121</v>
       </c>
@@ -3732,8 +3790,8 @@
       <c r="C3" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>213</v>
+      <c r="D3" t="s">
+        <v>210</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -3741,8 +3799,17 @@
       <c r="F3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>122</v>
       </c>
@@ -3752,8 +3819,8 @@
       <c r="C4" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>213</v>
+      <c r="D4" t="s">
+        <v>210</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -3761,8 +3828,17 @@
       <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>123</v>
       </c>
@@ -3772,8 +3848,8 @@
       <c r="C5" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>213</v>
+      <c r="D5" t="s">
+        <v>210</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -3781,8 +3857,17 @@
       <c r="F5">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>124</v>
       </c>
@@ -3792,8 +3877,8 @@
       <c r="C6" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>213</v>
+      <c r="D6" t="s">
+        <v>210</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -3801,8 +3886,17 @@
       <c r="F6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>125</v>
       </c>
@@ -3812,8 +3906,8 @@
       <c r="C7" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>213</v>
+      <c r="D7" t="s">
+        <v>210</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -3821,8 +3915,17 @@
       <c r="F7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>126</v>
       </c>
@@ -3832,8 +3935,8 @@
       <c r="C8" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>213</v>
+      <c r="D8" t="s">
+        <v>210</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -3841,25 +3944,109 @@
       <c r="F8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>213</v>
+      <c r="D9" t="s">
+        <v>210</v>
       </c>
       <c r="E9">
         <v>25</v>
       </c>
       <c r="F9">
         <v>60</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B15" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="B18" s="42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="B20" s="42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="42"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="B25" s="42" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3871,15 +4058,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3906,6 +4096,166 @@
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3918,17 +4268,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -3939,7 +4289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
@@ -3954,7 +4304,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>113</v>
       </c>
@@ -3969,7 +4319,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -3984,7 +4334,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -3999,7 +4349,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -4010,7 +4360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>117</v>
       </c>
@@ -4021,7 +4371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
@@ -4032,7 +4382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>119</v>
       </c>
@@ -4043,7 +4393,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
@@ -4054,7 +4404,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>121</v>
       </c>
@@ -4065,7 +4415,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>122</v>
       </c>
@@ -4076,7 +4426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -4087,7 +4437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -4098,7 +4448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>125</v>
       </c>
@@ -4109,7 +4459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>126</v>
       </c>
@@ -4120,7 +4470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>127</v>
       </c>
@@ -4131,7 +4481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>128</v>
       </c>
@@ -4142,7 +4492,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>129</v>
       </c>
@@ -4153,7 +4503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>130</v>
       </c>
@@ -4164,7 +4514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>131</v>
       </c>
@@ -4175,7 +4525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>132</v>
       </c>
@@ -4186,7 +4536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -4197,7 +4547,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>134</v>
       </c>
@@ -4208,7 +4558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>135</v>
       </c>
@@ -4219,7 +4569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>136</v>
       </c>
@@ -4230,7 +4580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>137</v>
       </c>
@@ -4241,7 +4591,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>138</v>
       </c>
@@ -4252,7 +4602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>139</v>
       </c>
@@ -4263,7 +4613,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>140</v>
       </c>
@@ -4274,7 +4624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>141</v>
       </c>
@@ -4285,7 +4635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>142</v>
       </c>
@@ -4296,7 +4646,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>143</v>
       </c>
@@ -4307,7 +4657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -4318,7 +4668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -4329,7 +4679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -4340,7 +4690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -4351,7 +4701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -4362,7 +4712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4373,7 +4723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -4384,7 +4734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -4395,7 +4745,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -4406,7 +4756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -4431,9 +4781,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
